--- a/biology/Médecine/Jules_Dallemagne_(1858-1923)/Jules_Dallemagne_(1858-1923).xlsx
+++ b/biology/Médecine/Jules_Dallemagne_(1858-1923)/Jules_Dallemagne_(1858-1923).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jules Dallemagne, né le 21 avril 1858 et décédé en 1923, fut un médecin, criminologue et homme politique belge libéral.
 Dallemagne fut professeur de médecine légale à l'ULB.
@@ -512,17 +524,19 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les stigmates anatomiques de la criminalité, Ed. G.Masson, Paris, 1894.[1]
-Les stigmates biologiques et sociologiques de la criminalité., Ed. G.Masson, Paris, 1896.[2]
-Les théories de la criminalité, Masson et Cie, Paris, 1895.[3]
-Dégénérés et déséquilibrés , 1895 [4]
-Physiologie de la volonté , 1897 [5]
-Les théories de la criminalité , 1896 [6]
-La volonté dans ses rapports avec la responsabilité pénale , 1899 [7]
-Pathologie de la volonté, 1898 [8]
-Quelques phases de l'évolution de la propriété , Revue Int'le de Sociologie, Giard &amp; Brière, Paris, 1897 [9]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les stigmates anatomiques de la criminalité, Ed. G.Masson, Paris, 1894.
+Les stigmates biologiques et sociologiques de la criminalité., Ed. G.Masson, Paris, 1896.
+Les théories de la criminalité, Masson et Cie, Paris, 1895.
+Dégénérés et déséquilibrés , 1895 
+Physiologie de la volonté , 1897 
+Les théories de la criminalité , 1896 
+La volonté dans ses rapports avec la responsabilité pénale , 1899 
+Pathologie de la volonté, 1898 
+Quelques phases de l'évolution de la propriété , Revue Int'le de Sociologie, Giard &amp; Brière, Paris, 1897 </t>
         </is>
       </c>
     </row>
